--- a/Code/Results/Cases/Case_1_162/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_162/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011675876245932</v>
+        <v>1.061690715476676</v>
       </c>
       <c r="D2">
-        <v>1.029604700934948</v>
+        <v>1.0391534462867</v>
       </c>
       <c r="E2">
-        <v>1.022420765258666</v>
+        <v>1.066598522113135</v>
       </c>
       <c r="F2">
-        <v>1.025466007038637</v>
+        <v>1.07572469191559</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046403104379078</v>
+        <v>1.042476319329654</v>
       </c>
       <c r="J2">
-        <v>1.033512885203344</v>
+        <v>1.066665092628052</v>
       </c>
       <c r="K2">
-        <v>1.040666444958521</v>
+        <v>1.04193944350433</v>
       </c>
       <c r="L2">
-        <v>1.033576336072085</v>
+        <v>1.06930863974435</v>
       </c>
       <c r="M2">
-        <v>1.0365816039414</v>
+        <v>1.078410505242127</v>
       </c>
       <c r="N2">
-        <v>1.034980592045941</v>
+        <v>1.06817987940778</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019610994781172</v>
+        <v>1.063258837415286</v>
       </c>
       <c r="D3">
-        <v>1.032756463900629</v>
+        <v>1.039771940143554</v>
       </c>
       <c r="E3">
-        <v>1.029444620059552</v>
+        <v>1.068037772727517</v>
       </c>
       <c r="F3">
-        <v>1.033277198843886</v>
+        <v>1.077346774571287</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048468143694334</v>
+        <v>1.04280809889427</v>
       </c>
       <c r="J3">
-        <v>1.039580955285859</v>
+        <v>1.067884407854698</v>
       </c>
       <c r="K3">
-        <v>1.04298669668161</v>
+        <v>1.042368603338219</v>
       </c>
       <c r="L3">
-        <v>1.039714118758331</v>
+        <v>1.07056195920964</v>
       </c>
       <c r="M3">
-        <v>1.043501286040045</v>
+        <v>1.079847987716948</v>
       </c>
       <c r="N3">
-        <v>1.041057279483967</v>
+        <v>1.069400926201906</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024585118318233</v>
+        <v>1.064271812929896</v>
       </c>
       <c r="D4">
-        <v>1.034743243363295</v>
+        <v>1.040171699114588</v>
       </c>
       <c r="E4">
-        <v>1.033853753390731</v>
+        <v>1.068967753785769</v>
       </c>
       <c r="F4">
-        <v>1.038182581027409</v>
+        <v>1.078395295376777</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049752725195441</v>
+        <v>1.043020993392603</v>
       </c>
       <c r="J4">
-        <v>1.043380177297603</v>
+        <v>1.068671287369704</v>
       </c>
       <c r="K4">
-        <v>1.044439679335929</v>
+        <v>1.042645159589666</v>
       </c>
       <c r="L4">
-        <v>1.043560066280669</v>
+        <v>1.071371109082895</v>
       </c>
       <c r="M4">
-        <v>1.047841022187377</v>
+        <v>1.080776571786889</v>
       </c>
       <c r="N4">
-        <v>1.044861896826744</v>
+        <v>1.070188923176079</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02664010305344</v>
+        <v>1.06469726884863</v>
       </c>
       <c r="D5">
-        <v>1.035566483328768</v>
+        <v>1.040339651364668</v>
       </c>
       <c r="E5">
-        <v>1.035676730186342</v>
+        <v>1.069358411602882</v>
       </c>
       <c r="F5">
-        <v>1.040211245757474</v>
+        <v>1.0788358446818</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05028097293061</v>
+        <v>1.043110067721289</v>
       </c>
       <c r="J5">
-        <v>1.044948611044841</v>
+        <v>1.069001595889526</v>
       </c>
       <c r="K5">
-        <v>1.045039468422873</v>
+        <v>1.042761152411787</v>
       </c>
       <c r="L5">
-        <v>1.04514852528474</v>
+        <v>1.071710844088027</v>
       </c>
       <c r="M5">
-        <v>1.049634363325116</v>
+        <v>1.081166582090045</v>
       </c>
       <c r="N5">
-        <v>1.046432557929805</v>
+        <v>1.070519700771886</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02698308720107</v>
+        <v>1.064768681633466</v>
       </c>
       <c r="D6">
-        <v>1.035704021527148</v>
+        <v>1.040367845069014</v>
       </c>
       <c r="E6">
-        <v>1.035981071896145</v>
+        <v>1.069423987028833</v>
       </c>
       <c r="F6">
-        <v>1.040549957496412</v>
+        <v>1.078909800503891</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050368992353478</v>
+        <v>1.043124998733428</v>
       </c>
       <c r="J6">
-        <v>1.045210318129475</v>
+        <v>1.069057027278321</v>
       </c>
       <c r="K6">
-        <v>1.045139542715672</v>
+        <v>1.042780612235565</v>
       </c>
       <c r="L6">
-        <v>1.045413616954253</v>
+        <v>1.071767861980464</v>
       </c>
       <c r="M6">
-        <v>1.049933702452011</v>
+        <v>1.081232045273516</v>
       </c>
       <c r="N6">
-        <v>1.046694636668517</v>
+        <v>1.070575210879611</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024612716266887</v>
+        <v>1.064277499449327</v>
       </c>
       <c r="D7">
-        <v>1.034754289944724</v>
+        <v>1.040173943717975</v>
       </c>
       <c r="E7">
-        <v>1.033878230058532</v>
+        <v>1.068972974968646</v>
       </c>
       <c r="F7">
-        <v>1.038209817354886</v>
+        <v>1.078401182985367</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049759829276248</v>
+        <v>1.043022185281872</v>
       </c>
       <c r="J7">
-        <v>1.043401245655183</v>
+        <v>1.068675702907327</v>
       </c>
       <c r="K7">
-        <v>1.044447736470157</v>
+        <v>1.042646710556469</v>
       </c>
       <c r="L7">
-        <v>1.04358140072259</v>
+        <v>1.071375650326059</v>
       </c>
       <c r="M7">
-        <v>1.047865104654854</v>
+        <v>1.080781784553884</v>
       </c>
       <c r="N7">
-        <v>1.044882995103809</v>
+        <v>1.070193344984271</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014392238038332</v>
+        <v>1.062221027940126</v>
       </c>
       <c r="D8">
-        <v>1.030681124709861</v>
+        <v>1.039362562418401</v>
       </c>
       <c r="E8">
-        <v>1.024823808765728</v>
+        <v>1.067085199422392</v>
       </c>
       <c r="F8">
-        <v>1.028138014019908</v>
+        <v>1.076273110118431</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047112046501312</v>
+        <v>1.042588817305223</v>
       </c>
       <c r="J8">
-        <v>1.035591032815496</v>
+        <v>1.067077604670951</v>
       </c>
       <c r="K8">
-        <v>1.041460939390937</v>
+        <v>1.042084716626524</v>
       </c>
       <c r="L8">
-        <v>1.035677705200247</v>
+        <v>1.069732588338552</v>
       </c>
       <c r="M8">
-        <v>1.038949863885277</v>
+        <v>1.078896637555024</v>
       </c>
       <c r="N8">
-        <v>1.037061690866045</v>
+        <v>1.068592977265096</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9950395817561908</v>
+        <v>1.058583804920159</v>
       </c>
       <c r="D9">
-        <v>1.023070940037538</v>
+        <v>1.03792933684284</v>
       </c>
       <c r="E9">
-        <v>1.00773451926489</v>
+        <v>1.063748325902971</v>
       </c>
       <c r="F9">
-        <v>1.009143312553898</v>
+        <v>1.072514555214098</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042022162591739</v>
+        <v>1.041811384711141</v>
       </c>
       <c r="J9">
-        <v>1.020768729447022</v>
+        <v>1.064245166719951</v>
       </c>
       <c r="K9">
-        <v>1.035800477217224</v>
+        <v>1.04108563369406</v>
       </c>
       <c r="L9">
-        <v>1.020703343424619</v>
+        <v>1.066822964971808</v>
       </c>
       <c r="M9">
-        <v>1.022089767455306</v>
+        <v>1.07556244471911</v>
       </c>
       <c r="N9">
-        <v>1.022218338126646</v>
+        <v>1.06575651692732</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9810526887815891</v>
+        <v>1.056149373014146</v>
       </c>
       <c r="D10">
-        <v>1.017659519952079</v>
+        <v>1.036971465667563</v>
       </c>
       <c r="E10">
-        <v>0.9954287360023495</v>
+        <v>1.061516297615146</v>
       </c>
       <c r="F10">
-        <v>0.9954731342998367</v>
+        <v>1.070002517615583</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03829812225541</v>
+        <v>1.041283715136071</v>
       </c>
       <c r="J10">
-        <v>1.010038754981379</v>
+        <v>1.062345424159928</v>
       </c>
       <c r="K10">
-        <v>1.031717082377968</v>
+        <v>1.040413596896595</v>
       </c>
       <c r="L10">
-        <v>1.009881019470977</v>
+        <v>1.064873139964258</v>
       </c>
       <c r="M10">
-        <v>1.009924606576917</v>
+        <v>1.073330871711025</v>
       </c>
       <c r="N10">
-        <v>1.011473125866517</v>
+        <v>1.063854076514958</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9746900494488987</v>
+        <v>1.055092829077323</v>
       </c>
       <c r="D11">
-        <v>1.015223729172074</v>
+        <v>1.03655611723499</v>
       </c>
       <c r="E11">
-        <v>0.9898435591701319</v>
+        <v>1.060547932814812</v>
       </c>
       <c r="F11">
-        <v>0.989269893151516</v>
+        <v>1.068913154448613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036594969267722</v>
+        <v>1.041052977388749</v>
       </c>
       <c r="J11">
-        <v>1.00515502010027</v>
+        <v>1.061520001373543</v>
       </c>
       <c r="K11">
-        <v>1.029864147691695</v>
+        <v>1.04012116039477</v>
       </c>
       <c r="L11">
-        <v>1.004959586898522</v>
+        <v>1.064026356639538</v>
       </c>
       <c r="M11">
-        <v>1.004397040757551</v>
+        <v>1.072362383733097</v>
       </c>
       <c r="N11">
-        <v>1.006582455521705</v>
+        <v>1.06302748153354</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9722757677650102</v>
+        <v>1.054700007179917</v>
       </c>
       <c r="D12">
-        <v>1.014303817160105</v>
+        <v>1.036401749363512</v>
       </c>
       <c r="E12">
-        <v>0.9877263876107266</v>
+        <v>1.060187947089768</v>
       </c>
       <c r="F12">
-        <v>0.986918548447512</v>
+        <v>1.068508260450292</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035947511624749</v>
+        <v>1.040966930281426</v>
       </c>
       <c r="J12">
-        <v>1.00330164511198</v>
+        <v>1.061212970190951</v>
       </c>
       <c r="K12">
-        <v>1.029162015267884</v>
+        <v>1.040012318431953</v>
       </c>
       <c r="L12">
-        <v>1.00309256982111</v>
+        <v>1.063711440082188</v>
       </c>
       <c r="M12">
-        <v>1.002300734271053</v>
+        <v>1.072002303749232</v>
       </c>
       <c r="N12">
-        <v>1.004726448528346</v>
+        <v>1.062720014331452</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9727960302433858</v>
+        <v>1.05478428593251</v>
       </c>
       <c r="D13">
-        <v>1.014501848799282</v>
+        <v>1.036434865842375</v>
       </c>
       <c r="E13">
-        <v>0.9881825264247235</v>
+        <v>1.060265178608405</v>
       </c>
       <c r="F13">
-        <v>0.98742513505731</v>
+        <v>1.068595123341723</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036087086089739</v>
+        <v>1.040985403138621</v>
       </c>
       <c r="J13">
-        <v>1.00370104492131</v>
+        <v>1.06127884912609</v>
       </c>
       <c r="K13">
-        <v>1.029313272632628</v>
+        <v>1.040035675295489</v>
       </c>
       <c r="L13">
-        <v>1.003494879288376</v>
+        <v>1.063779008245384</v>
       </c>
       <c r="M13">
-        <v>1.00275242238466</v>
+        <v>1.072079557687811</v>
       </c>
       <c r="N13">
-        <v>1.005126415531217</v>
+        <v>1.062785986822234</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9744915538168296</v>
+        <v>1.055060365999275</v>
       </c>
       <c r="D14">
-        <v>1.015148005808549</v>
+        <v>1.036543358960863</v>
       </c>
       <c r="E14">
-        <v>0.9896694472822594</v>
+        <v>1.060518182291094</v>
       </c>
       <c r="F14">
-        <v>0.9890765213675499</v>
+        <v>1.068879691067941</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036541760427967</v>
+        <v>1.041045871674297</v>
       </c>
       <c r="J14">
-        <v>1.005002645037722</v>
+        <v>1.061494630950494</v>
       </c>
       <c r="K14">
-        <v>1.029806399265423</v>
+        <v>1.040112167941521</v>
       </c>
       <c r="L14">
-        <v>1.004806076714637</v>
+        <v>1.06400033341193</v>
       </c>
       <c r="M14">
-        <v>1.004224664749649</v>
+        <v>1.07233262640962</v>
       </c>
       <c r="N14">
-        <v>1.006429864069091</v>
+        <v>1.06300207508158</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9755293159253877</v>
+        <v>1.055230418092143</v>
       </c>
       <c r="D15">
-        <v>1.015544076862717</v>
+        <v>1.036610193324666</v>
       </c>
       <c r="E15">
-        <v>0.9905798145192538</v>
+        <v>1.060674027251157</v>
       </c>
       <c r="F15">
-        <v>0.9900875958765546</v>
+        <v>1.069054988396667</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036819895675577</v>
+        <v>1.041083083101901</v>
       </c>
       <c r="J15">
-        <v>1.00579927294376</v>
+        <v>1.061627523701156</v>
       </c>
       <c r="K15">
-        <v>1.030108356389468</v>
+        <v>1.040159268644723</v>
       </c>
       <c r="L15">
-        <v>1.005608666162789</v>
+        <v>1.064136648075119</v>
       </c>
       <c r="M15">
-        <v>1.005125915916266</v>
+        <v>1.072488505003582</v>
       </c>
       <c r="N15">
-        <v>1.007227623278129</v>
+        <v>1.063135156555191</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9814681018510977</v>
+        <v>1.05621944045362</v>
       </c>
       <c r="D16">
-        <v>1.017819122433556</v>
+        <v>1.036999018567395</v>
       </c>
       <c r="E16">
-        <v>0.9957936673471857</v>
+        <v>1.061580524366472</v>
       </c>
       <c r="F16">
-        <v>0.9958784690324074</v>
+        <v>1.070074779735894</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03840914578242</v>
+        <v>1.041298980769768</v>
       </c>
       <c r="J16">
-        <v>1.010357567658135</v>
+        <v>1.062400144579566</v>
       </c>
       <c r="K16">
-        <v>1.031838176101946</v>
+        <v>1.040432974460881</v>
       </c>
       <c r="L16">
-        <v>1.010202383596667</v>
+        <v>1.0649292848684</v>
       </c>
       <c r="M16">
-        <v>1.010285642005564</v>
+        <v>1.073395099856049</v>
       </c>
       <c r="N16">
-        <v>1.011792391293843</v>
+        <v>1.063908874643869</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.98510811668571</v>
+        <v>1.056839172695744</v>
       </c>
       <c r="D17">
-        <v>1.019220582872791</v>
+        <v>1.037242761173346</v>
       </c>
       <c r="E17">
-        <v>0.9989927934552607</v>
+        <v>1.062148635770201</v>
       </c>
       <c r="F17">
-        <v>0.9994319137292342</v>
+        <v>1.070714022979498</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039380973581627</v>
+        <v>1.041433802776534</v>
       </c>
       <c r="J17">
-        <v>1.013150846338889</v>
+        <v>1.062884027828075</v>
       </c>
       <c r="K17">
-        <v>1.032899794449935</v>
+        <v>1.040604276157921</v>
       </c>
       <c r="L17">
-        <v>1.013018505727707</v>
+        <v>1.065425810699845</v>
       </c>
       <c r="M17">
-        <v>1.013449910892671</v>
+        <v>1.073963186541415</v>
       </c>
       <c r="N17">
-        <v>1.014589636750717</v>
+        <v>1.064393445062093</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9872020969852332</v>
+        <v>1.057200419393115</v>
       </c>
       <c r="D18">
-        <v>1.020029187562482</v>
+        <v>1.037384875861012</v>
       </c>
       <c r="E18">
-        <v>1.000834323200674</v>
+        <v>1.062479824597643</v>
       </c>
       <c r="F18">
-        <v>1.001477517570531</v>
+        <v>1.071086725773836</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039939171670733</v>
+        <v>1.041512224914127</v>
       </c>
       <c r="J18">
-        <v>1.014757467379272</v>
+        <v>1.063165997061816</v>
       </c>
       <c r="K18">
-        <v>1.033510920961733</v>
+        <v>1.040704054701628</v>
       </c>
       <c r="L18">
-        <v>1.01463867066344</v>
+        <v>1.065715185544985</v>
       </c>
       <c r="M18">
-        <v>1.015270795781646</v>
+        <v>1.074294330070956</v>
       </c>
       <c r="N18">
-        <v>1.016198539377259</v>
+        <v>1.064675814724488</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9879112784406817</v>
+        <v>1.057323556054763</v>
       </c>
       <c r="D19">
-        <v>1.020303435696867</v>
+        <v>1.03743332379283</v>
       </c>
       <c r="E19">
-        <v>1.001458200209243</v>
+        <v>1.062592721014978</v>
       </c>
       <c r="F19">
-        <v>1.002170552553611</v>
+        <v>1.071213781485029</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040128069317035</v>
+        <v>1.041538928054676</v>
       </c>
       <c r="J19">
-        <v>1.015301543814747</v>
+        <v>1.063262095457506</v>
       </c>
       <c r="K19">
-        <v>1.033717957601851</v>
+        <v>1.040738053106881</v>
       </c>
       <c r="L19">
-        <v>1.015187402037578</v>
+        <v>1.065813814390547</v>
       </c>
       <c r="M19">
-        <v>1.015887581436357</v>
+        <v>1.074407205816588</v>
       </c>
       <c r="N19">
-        <v>1.016743388463679</v>
+        <v>1.064772049590922</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9847206288070142</v>
+        <v>1.05677270543357</v>
       </c>
       <c r="D20">
-        <v>1.01907114254957</v>
+        <v>1.037216615725836</v>
       </c>
       <c r="E20">
-        <v>0.9986521153936385</v>
+        <v>1.062087701575498</v>
       </c>
       <c r="F20">
-        <v>0.9990534923077889</v>
+        <v>1.070645454541671</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039277608873733</v>
+        <v>1.041419360139801</v>
       </c>
       <c r="J20">
-        <v>1.012853521535374</v>
+        <v>1.062832139897284</v>
       </c>
       <c r="K20">
-        <v>1.032786738070852</v>
+        <v>1.040585911479742</v>
       </c>
       <c r="L20">
-        <v>1.012718707206075</v>
+        <v>1.06537256309117</v>
       </c>
       <c r="M20">
-        <v>1.013113005355166</v>
+        <v>1.073902258195585</v>
       </c>
       <c r="N20">
-        <v>1.014291889711878</v>
+        <v>1.064341483444488</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9739937129813778</v>
+        <v>1.054979077726057</v>
       </c>
       <c r="D21">
-        <v>1.01495815772562</v>
+        <v>1.036511412907759</v>
       </c>
       <c r="E21">
-        <v>0.9892327970902799</v>
+        <v>1.060443687145233</v>
       </c>
       <c r="F21">
-        <v>0.9885915714809363</v>
+        <v>1.068795900117061</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036408290230589</v>
+        <v>1.041028074624928</v>
       </c>
       <c r="J21">
-        <v>1.004620474156434</v>
+        <v>1.061431100586433</v>
       </c>
       <c r="K21">
-        <v>1.029661578535382</v>
+        <v>1.040089648795822</v>
       </c>
       <c r="L21">
-        <v>1.004421069563214</v>
+        <v>1.063935169322608</v>
       </c>
       <c r="M21">
-        <v>1.003792352128428</v>
+        <v>1.072258113453412</v>
       </c>
       <c r="N21">
-        <v>1.006047150461315</v>
+        <v>1.062938454497115</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9669517001496433</v>
+        <v>1.05384918089186</v>
       </c>
       <c r="D22">
-        <v>1.012283755067938</v>
+        <v>1.03606750851334</v>
       </c>
       <c r="E22">
-        <v>0.9830616429788073</v>
+        <v>1.059408336439001</v>
       </c>
       <c r="F22">
-        <v>0.981737990816636</v>
+        <v>1.067631525368774</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034517689607785</v>
+        <v>1.040780084774927</v>
       </c>
       <c r="J22">
-        <v>0.9992142077150417</v>
+        <v>1.060547705534841</v>
       </c>
       <c r="K22">
-        <v>1.027615733795149</v>
+        <v>1.039776366481814</v>
       </c>
       <c r="L22">
-        <v>0.9989762893783065</v>
+        <v>1.063029199576351</v>
       </c>
       <c r="M22">
-        <v>0.9976801150542203</v>
+        <v>1.071222399988458</v>
       </c>
       <c r="N22">
-        <v>1.000633206501468</v>
+        <v>1.062053804923223</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9707148515893153</v>
+        <v>1.054448370159551</v>
       </c>
       <c r="D23">
-        <v>1.013710347194315</v>
+        <v>1.03630287990859</v>
       </c>
       <c r="E23">
-        <v>0.9863581831174741</v>
+        <v>1.059957359061084</v>
       </c>
       <c r="F23">
-        <v>0.9853990358168957</v>
+        <v>1.068248926874207</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035528591033588</v>
+        <v>1.040911736687478</v>
       </c>
       <c r="J23">
-        <v>1.002103320953603</v>
+        <v>1.061016250357042</v>
       </c>
       <c r="K23">
-        <v>1.02870836812636</v>
+        <v>1.039942563573167</v>
       </c>
       <c r="L23">
-        <v>1.001885614274639</v>
+        <v>1.063509684872553</v>
       </c>
       <c r="M23">
-        <v>1.000945733722738</v>
+        <v>1.071771641662761</v>
       </c>
       <c r="N23">
-        <v>1.003526422612215</v>
+        <v>1.062523015132814</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9848958077086561</v>
+        <v>1.056802739847257</v>
       </c>
       <c r="D24">
-        <v>1.019138695437037</v>
+        <v>1.037228429902239</v>
       </c>
       <c r="E24">
-        <v>0.9988061284566083</v>
+        <v>1.062115235674487</v>
       </c>
       <c r="F24">
-        <v>0.9992245679496239</v>
+        <v>1.070676438152453</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039324341585221</v>
+        <v>1.041425886817072</v>
       </c>
       <c r="J24">
-        <v>1.012987939545422</v>
+        <v>1.062855586659334</v>
       </c>
       <c r="K24">
-        <v>1.032837848322467</v>
+        <v>1.040594210116483</v>
       </c>
       <c r="L24">
-        <v>1.012854242305168</v>
+        <v>1.065396624136091</v>
       </c>
       <c r="M24">
-        <v>1.013265314741727</v>
+        <v>1.073929789747119</v>
       </c>
       <c r="N24">
-        <v>1.014426498610917</v>
+        <v>1.06436496350363</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000219204967323</v>
+        <v>1.05952576729556</v>
       </c>
       <c r="D25">
-        <v>1.025094138910442</v>
+        <v>1.03830027663266</v>
       </c>
       <c r="E25">
-        <v>1.012301262251421</v>
+        <v>1.064612265220047</v>
       </c>
       <c r="F25">
-        <v>1.014217747744624</v>
+        <v>1.073487308402219</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043392637301305</v>
+        <v>1.042014014711963</v>
       </c>
       <c r="J25">
-        <v>1.0247391942416</v>
+        <v>1.064979406002591</v>
       </c>
       <c r="K25">
-        <v>1.037315001238661</v>
+        <v>1.041344968933802</v>
       </c>
       <c r="L25">
-        <v>1.024711571745734</v>
+        <v>1.067576916167084</v>
       </c>
       <c r="M25">
-        <v>1.026599289138235</v>
+        <v>1.076425924289583</v>
       </c>
       <c r="N25">
-        <v>1.026194441436652</v>
+        <v>1.06649179891396</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_162/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_162/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.061690715476676</v>
+        <v>1.01167587624593</v>
       </c>
       <c r="D2">
-        <v>1.0391534462867</v>
+        <v>1.029604700934947</v>
       </c>
       <c r="E2">
-        <v>1.066598522113135</v>
+        <v>1.022420765258664</v>
       </c>
       <c r="F2">
-        <v>1.07572469191559</v>
+        <v>1.025466007038634</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042476319329654</v>
+        <v>1.046403104379078</v>
       </c>
       <c r="J2">
-        <v>1.066665092628052</v>
+        <v>1.033512885203343</v>
       </c>
       <c r="K2">
-        <v>1.04193944350433</v>
+        <v>1.04066644495852</v>
       </c>
       <c r="L2">
-        <v>1.06930863974435</v>
+        <v>1.033576336072083</v>
       </c>
       <c r="M2">
-        <v>1.078410505242127</v>
+        <v>1.036581603941398</v>
       </c>
       <c r="N2">
-        <v>1.06817987940778</v>
+        <v>1.034980592045939</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063258837415286</v>
+        <v>1.019610994781169</v>
       </c>
       <c r="D3">
-        <v>1.039771940143554</v>
+        <v>1.032756463900628</v>
       </c>
       <c r="E3">
-        <v>1.068037772727517</v>
+        <v>1.029444620059549</v>
       </c>
       <c r="F3">
-        <v>1.077346774571287</v>
+        <v>1.033277198843884</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04280809889427</v>
+        <v>1.048468143694333</v>
       </c>
       <c r="J3">
-        <v>1.067884407854698</v>
+        <v>1.039580955285856</v>
       </c>
       <c r="K3">
-        <v>1.042368603338219</v>
+        <v>1.042986696681609</v>
       </c>
       <c r="L3">
-        <v>1.07056195920964</v>
+        <v>1.039714118758328</v>
       </c>
       <c r="M3">
-        <v>1.079847987716948</v>
+        <v>1.043501286040043</v>
       </c>
       <c r="N3">
-        <v>1.069400926201906</v>
+        <v>1.041057279483965</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.064271812929896</v>
+        <v>1.024585118318234</v>
       </c>
       <c r="D4">
-        <v>1.040171699114588</v>
+        <v>1.034743243363295</v>
       </c>
       <c r="E4">
-        <v>1.068967753785769</v>
+        <v>1.033853753390733</v>
       </c>
       <c r="F4">
-        <v>1.078395295376777</v>
+        <v>1.03818258102741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043020993392603</v>
+        <v>1.049752725195442</v>
       </c>
       <c r="J4">
-        <v>1.068671287369704</v>
+        <v>1.043380177297603</v>
       </c>
       <c r="K4">
-        <v>1.042645159589666</v>
+        <v>1.044439679335929</v>
       </c>
       <c r="L4">
-        <v>1.071371109082895</v>
+        <v>1.04356006628067</v>
       </c>
       <c r="M4">
-        <v>1.080776571786889</v>
+        <v>1.047841022187378</v>
       </c>
       <c r="N4">
-        <v>1.070188923176079</v>
+        <v>1.044861896826745</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.06469726884863</v>
+        <v>1.026640103053439</v>
       </c>
       <c r="D5">
-        <v>1.040339651364668</v>
+        <v>1.035566483328768</v>
       </c>
       <c r="E5">
-        <v>1.069358411602882</v>
+        <v>1.035676730186341</v>
       </c>
       <c r="F5">
-        <v>1.0788358446818</v>
+        <v>1.040211245757473</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043110067721289</v>
+        <v>1.05028097293061</v>
       </c>
       <c r="J5">
-        <v>1.069001595889526</v>
+        <v>1.04494861104484</v>
       </c>
       <c r="K5">
-        <v>1.042761152411787</v>
+        <v>1.045039468422873</v>
       </c>
       <c r="L5">
-        <v>1.071710844088027</v>
+        <v>1.045148525284739</v>
       </c>
       <c r="M5">
-        <v>1.081166582090045</v>
+        <v>1.049634363325115</v>
       </c>
       <c r="N5">
-        <v>1.070519700771886</v>
+        <v>1.046432557929805</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064768681633466</v>
+        <v>1.026983087201069</v>
       </c>
       <c r="D6">
-        <v>1.040367845069014</v>
+        <v>1.035704021527147</v>
       </c>
       <c r="E6">
-        <v>1.069423987028833</v>
+        <v>1.035981071896144</v>
       </c>
       <c r="F6">
-        <v>1.078909800503891</v>
+        <v>1.040549957496411</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043124998733428</v>
+        <v>1.050368992353478</v>
       </c>
       <c r="J6">
-        <v>1.069057027278321</v>
+        <v>1.045210318129473</v>
       </c>
       <c r="K6">
-        <v>1.042780612235565</v>
+        <v>1.045139542715671</v>
       </c>
       <c r="L6">
-        <v>1.071767861980464</v>
+        <v>1.045413616954251</v>
       </c>
       <c r="M6">
-        <v>1.081232045273516</v>
+        <v>1.04993370245201</v>
       </c>
       <c r="N6">
-        <v>1.070575210879611</v>
+        <v>1.046694636668516</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.064277499449327</v>
+        <v>1.024612716266887</v>
       </c>
       <c r="D7">
-        <v>1.040173943717975</v>
+        <v>1.034754289944724</v>
       </c>
       <c r="E7">
-        <v>1.068972974968646</v>
+        <v>1.033878230058532</v>
       </c>
       <c r="F7">
-        <v>1.078401182985367</v>
+        <v>1.038209817354885</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043022185281872</v>
+        <v>1.049759829276248</v>
       </c>
       <c r="J7">
-        <v>1.068675702907327</v>
+        <v>1.043401245655183</v>
       </c>
       <c r="K7">
-        <v>1.042646710556469</v>
+        <v>1.044447736470157</v>
       </c>
       <c r="L7">
-        <v>1.071375650326059</v>
+        <v>1.043581400722589</v>
       </c>
       <c r="M7">
-        <v>1.080781784553884</v>
+        <v>1.047865104654853</v>
       </c>
       <c r="N7">
-        <v>1.070193344984271</v>
+        <v>1.044882995103809</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.062221027940126</v>
+        <v>1.014392238038333</v>
       </c>
       <c r="D8">
-        <v>1.039362562418401</v>
+        <v>1.030681124709861</v>
       </c>
       <c r="E8">
-        <v>1.067085199422392</v>
+        <v>1.024823808765729</v>
       </c>
       <c r="F8">
-        <v>1.076273110118431</v>
+        <v>1.028138014019909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042588817305223</v>
+        <v>1.047112046501312</v>
       </c>
       <c r="J8">
-        <v>1.067077604670951</v>
+        <v>1.035591032815496</v>
       </c>
       <c r="K8">
-        <v>1.042084716626524</v>
+        <v>1.041460939390937</v>
       </c>
       <c r="L8">
-        <v>1.069732588338552</v>
+        <v>1.035677705200247</v>
       </c>
       <c r="M8">
-        <v>1.078896637555024</v>
+        <v>1.038949863885277</v>
       </c>
       <c r="N8">
-        <v>1.068592977265096</v>
+        <v>1.037061690866046</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.058583804920159</v>
+        <v>0.9950395817561908</v>
       </c>
       <c r="D9">
-        <v>1.03792933684284</v>
+        <v>1.023070940037538</v>
       </c>
       <c r="E9">
-        <v>1.063748325902971</v>
+        <v>1.00773451926489</v>
       </c>
       <c r="F9">
-        <v>1.072514555214098</v>
+        <v>1.009143312553898</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041811384711141</v>
+        <v>1.042022162591739</v>
       </c>
       <c r="J9">
-        <v>1.064245166719951</v>
+        <v>1.020768729447022</v>
       </c>
       <c r="K9">
-        <v>1.04108563369406</v>
+        <v>1.035800477217224</v>
       </c>
       <c r="L9">
-        <v>1.066822964971808</v>
+        <v>1.02070334342462</v>
       </c>
       <c r="M9">
-        <v>1.07556244471911</v>
+        <v>1.022089767455307</v>
       </c>
       <c r="N9">
-        <v>1.06575651692732</v>
+        <v>1.022218338126647</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.056149373014146</v>
+        <v>0.9810526887815899</v>
       </c>
       <c r="D10">
-        <v>1.036971465667563</v>
+        <v>1.01765951995208</v>
       </c>
       <c r="E10">
-        <v>1.061516297615146</v>
+        <v>0.99542873600235</v>
       </c>
       <c r="F10">
-        <v>1.070002517615583</v>
+        <v>0.9954731342998376</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041283715136071</v>
+        <v>1.038298122255411</v>
       </c>
       <c r="J10">
-        <v>1.062345424159928</v>
+        <v>1.01003875498138</v>
       </c>
       <c r="K10">
-        <v>1.040413596896595</v>
+        <v>1.031717082377968</v>
       </c>
       <c r="L10">
-        <v>1.064873139964258</v>
+        <v>1.009881019470978</v>
       </c>
       <c r="M10">
-        <v>1.073330871711025</v>
+        <v>1.009924606576918</v>
       </c>
       <c r="N10">
-        <v>1.063854076514958</v>
+        <v>1.011473125866518</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.055092829077323</v>
+        <v>0.9746900494488988</v>
       </c>
       <c r="D11">
-        <v>1.03655611723499</v>
+        <v>1.015223729172074</v>
       </c>
       <c r="E11">
-        <v>1.060547932814812</v>
+        <v>0.9898435591701323</v>
       </c>
       <c r="F11">
-        <v>1.068913154448613</v>
+        <v>0.9892698931515164</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041052977388749</v>
+        <v>1.036594969267722</v>
       </c>
       <c r="J11">
-        <v>1.061520001373543</v>
+        <v>1.00515502010027</v>
       </c>
       <c r="K11">
-        <v>1.04012116039477</v>
+        <v>1.029864147691696</v>
       </c>
       <c r="L11">
-        <v>1.064026356639538</v>
+        <v>1.004959586898522</v>
       </c>
       <c r="M11">
-        <v>1.072362383733097</v>
+        <v>1.004397040757551</v>
       </c>
       <c r="N11">
-        <v>1.06302748153354</v>
+        <v>1.006582455521705</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054700007179917</v>
+        <v>0.9722757677650099</v>
       </c>
       <c r="D12">
-        <v>1.036401749363512</v>
+        <v>1.014303817160105</v>
       </c>
       <c r="E12">
-        <v>1.060187947089768</v>
+        <v>0.9877263876107264</v>
       </c>
       <c r="F12">
-        <v>1.068508260450292</v>
+        <v>0.9869185484475114</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040966930281426</v>
+        <v>1.035947511624749</v>
       </c>
       <c r="J12">
-        <v>1.061212970190951</v>
+        <v>1.00330164511198</v>
       </c>
       <c r="K12">
-        <v>1.040012318431953</v>
+        <v>1.029162015267883</v>
       </c>
       <c r="L12">
-        <v>1.063711440082188</v>
+        <v>1.003092569821109</v>
       </c>
       <c r="M12">
-        <v>1.072002303749232</v>
+        <v>1.002300734271052</v>
       </c>
       <c r="N12">
-        <v>1.062720014331452</v>
+        <v>1.004726448528346</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.05478428593251</v>
+        <v>0.9727960302433856</v>
       </c>
       <c r="D13">
-        <v>1.036434865842375</v>
+        <v>1.014501848799282</v>
       </c>
       <c r="E13">
-        <v>1.060265178608405</v>
+        <v>0.9881825264247235</v>
       </c>
       <c r="F13">
-        <v>1.068595123341723</v>
+        <v>0.98742513505731</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040985403138621</v>
+        <v>1.036087086089739</v>
       </c>
       <c r="J13">
-        <v>1.06127884912609</v>
+        <v>1.00370104492131</v>
       </c>
       <c r="K13">
-        <v>1.040035675295489</v>
+        <v>1.029313272632628</v>
       </c>
       <c r="L13">
-        <v>1.063779008245384</v>
+        <v>1.003494879288376</v>
       </c>
       <c r="M13">
-        <v>1.072079557687811</v>
+        <v>1.00275242238466</v>
       </c>
       <c r="N13">
-        <v>1.062785986822234</v>
+        <v>1.005126415531217</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.055060365999275</v>
+        <v>0.9744915538168287</v>
       </c>
       <c r="D14">
-        <v>1.036543358960863</v>
+        <v>1.015148005808548</v>
       </c>
       <c r="E14">
-        <v>1.060518182291094</v>
+        <v>0.9896694472822586</v>
       </c>
       <c r="F14">
-        <v>1.068879691067941</v>
+        <v>0.9890765213675489</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041045871674297</v>
+        <v>1.036541760427966</v>
       </c>
       <c r="J14">
-        <v>1.061494630950494</v>
+        <v>1.005002645037722</v>
       </c>
       <c r="K14">
-        <v>1.040112167941521</v>
+        <v>1.029806399265423</v>
       </c>
       <c r="L14">
-        <v>1.06400033341193</v>
+        <v>1.004806076714636</v>
       </c>
       <c r="M14">
-        <v>1.07233262640962</v>
+        <v>1.004224664749648</v>
       </c>
       <c r="N14">
-        <v>1.06300207508158</v>
+        <v>1.00642986406909</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>1.055230418092143</v>
+        <v>0.9755293159253868</v>
       </c>
       <c r="D15">
-        <v>1.036610193324666</v>
+        <v>1.015544076862716</v>
       </c>
       <c r="E15">
-        <v>1.060674027251157</v>
+        <v>0.9905798145192527</v>
       </c>
       <c r="F15">
-        <v>1.069054988396667</v>
+        <v>0.9900875958765535</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041083083101901</v>
+        <v>1.036819895675576</v>
       </c>
       <c r="J15">
-        <v>1.061627523701156</v>
+        <v>1.005799272943759</v>
       </c>
       <c r="K15">
-        <v>1.040159268644723</v>
+        <v>1.030108356389467</v>
       </c>
       <c r="L15">
-        <v>1.064136648075119</v>
+        <v>1.005608666162787</v>
       </c>
       <c r="M15">
-        <v>1.072488505003582</v>
+        <v>1.005125915916264</v>
       </c>
       <c r="N15">
-        <v>1.063135156555191</v>
+        <v>1.007227623278128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05621944045362</v>
+        <v>0.9814681018510977</v>
       </c>
       <c r="D16">
-        <v>1.036999018567395</v>
+        <v>1.017819122433556</v>
       </c>
       <c r="E16">
-        <v>1.061580524366472</v>
+        <v>0.9957936673471856</v>
       </c>
       <c r="F16">
-        <v>1.070074779735894</v>
+        <v>0.9958784690324074</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041298980769768</v>
+        <v>1.03840914578242</v>
       </c>
       <c r="J16">
-        <v>1.062400144579566</v>
+        <v>1.010357567658135</v>
       </c>
       <c r="K16">
-        <v>1.040432974460881</v>
+        <v>1.031838176101946</v>
       </c>
       <c r="L16">
-        <v>1.0649292848684</v>
+        <v>1.010202383596667</v>
       </c>
       <c r="M16">
-        <v>1.073395099856049</v>
+        <v>1.010285642005564</v>
       </c>
       <c r="N16">
-        <v>1.063908874643869</v>
+        <v>1.011792391293842</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.056839172695744</v>
+        <v>0.9851081166857107</v>
       </c>
       <c r="D17">
-        <v>1.037242761173346</v>
+        <v>1.019220582872792</v>
       </c>
       <c r="E17">
-        <v>1.062148635770201</v>
+        <v>0.9989927934552614</v>
       </c>
       <c r="F17">
-        <v>1.070714022979498</v>
+        <v>0.999431913729235</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041433802776534</v>
+        <v>1.039380973581627</v>
       </c>
       <c r="J17">
-        <v>1.062884027828075</v>
+        <v>1.01315084633889</v>
       </c>
       <c r="K17">
-        <v>1.040604276157921</v>
+        <v>1.032899794449936</v>
       </c>
       <c r="L17">
-        <v>1.065425810699845</v>
+        <v>1.013018505727708</v>
       </c>
       <c r="M17">
-        <v>1.073963186541415</v>
+        <v>1.013449910892672</v>
       </c>
       <c r="N17">
-        <v>1.064393445062093</v>
+        <v>1.014589636750718</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.057200419393115</v>
+        <v>0.9872020969852336</v>
       </c>
       <c r="D18">
-        <v>1.037384875861012</v>
+        <v>1.020029187562482</v>
       </c>
       <c r="E18">
-        <v>1.062479824597643</v>
+        <v>1.000834323200674</v>
       </c>
       <c r="F18">
-        <v>1.071086725773836</v>
+        <v>1.001477517570531</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041512224914127</v>
+        <v>1.039939171670733</v>
       </c>
       <c r="J18">
-        <v>1.063165997061816</v>
+        <v>1.014757467379272</v>
       </c>
       <c r="K18">
-        <v>1.040704054701628</v>
+        <v>1.033510920961733</v>
       </c>
       <c r="L18">
-        <v>1.065715185544985</v>
+        <v>1.01463867066344</v>
       </c>
       <c r="M18">
-        <v>1.074294330070956</v>
+        <v>1.015270795781646</v>
       </c>
       <c r="N18">
-        <v>1.064675814724488</v>
+        <v>1.016198539377259</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.057323556054763</v>
+        <v>0.9879112784406798</v>
       </c>
       <c r="D19">
-        <v>1.03743332379283</v>
+        <v>1.020303435696866</v>
       </c>
       <c r="E19">
-        <v>1.062592721014978</v>
+        <v>1.001458200209241</v>
       </c>
       <c r="F19">
-        <v>1.071213781485029</v>
+        <v>1.002170552553608</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041538928054676</v>
+        <v>1.040128069317034</v>
       </c>
       <c r="J19">
-        <v>1.063262095457506</v>
+        <v>1.015301543814745</v>
       </c>
       <c r="K19">
-        <v>1.040738053106881</v>
+        <v>1.03371795760185</v>
       </c>
       <c r="L19">
-        <v>1.065813814390547</v>
+        <v>1.015187402037576</v>
       </c>
       <c r="M19">
-        <v>1.074407205816588</v>
+        <v>1.015887581436354</v>
       </c>
       <c r="N19">
-        <v>1.064772049590922</v>
+        <v>1.016743388463677</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05677270543357</v>
+        <v>0.9847206288070108</v>
       </c>
       <c r="D20">
-        <v>1.037216615725836</v>
+        <v>1.019071142549569</v>
       </c>
       <c r="E20">
-        <v>1.062087701575498</v>
+        <v>0.9986521153936356</v>
       </c>
       <c r="F20">
-        <v>1.070645454541671</v>
+        <v>0.9990534923077861</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041419360139801</v>
+        <v>1.039277608873732</v>
       </c>
       <c r="J20">
-        <v>1.062832139897284</v>
+        <v>1.012853521535371</v>
       </c>
       <c r="K20">
-        <v>1.040585911479742</v>
+        <v>1.032786738070851</v>
       </c>
       <c r="L20">
-        <v>1.06537256309117</v>
+        <v>1.012718707206072</v>
       </c>
       <c r="M20">
-        <v>1.073902258195585</v>
+        <v>1.013113005355163</v>
       </c>
       <c r="N20">
-        <v>1.064341483444488</v>
+        <v>1.014291889711874</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054979077726057</v>
+        <v>0.9739937129813775</v>
       </c>
       <c r="D21">
-        <v>1.036511412907759</v>
+        <v>1.01495815772562</v>
       </c>
       <c r="E21">
-        <v>1.060443687145233</v>
+        <v>0.9892327970902797</v>
       </c>
       <c r="F21">
-        <v>1.068795900117061</v>
+        <v>0.9885915714809361</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041028074624928</v>
+        <v>1.036408290230588</v>
       </c>
       <c r="J21">
-        <v>1.061431100586433</v>
+        <v>1.004620474156434</v>
       </c>
       <c r="K21">
-        <v>1.040089648795822</v>
+        <v>1.029661578535381</v>
       </c>
       <c r="L21">
-        <v>1.063935169322608</v>
+        <v>1.004421069563214</v>
       </c>
       <c r="M21">
-        <v>1.072258113453412</v>
+        <v>1.003792352128428</v>
       </c>
       <c r="N21">
-        <v>1.062938454497115</v>
+        <v>1.006047150461315</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05384918089186</v>
+        <v>0.9669517001496437</v>
       </c>
       <c r="D22">
-        <v>1.03606750851334</v>
+        <v>1.012283755067938</v>
       </c>
       <c r="E22">
-        <v>1.059408336439001</v>
+        <v>0.9830616429788077</v>
       </c>
       <c r="F22">
-        <v>1.067631525368774</v>
+        <v>0.9817379908166363</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040780084774927</v>
+        <v>1.034517689607785</v>
       </c>
       <c r="J22">
-        <v>1.060547705534841</v>
+        <v>0.9992142077150421</v>
       </c>
       <c r="K22">
-        <v>1.039776366481814</v>
+        <v>1.027615733795149</v>
       </c>
       <c r="L22">
-        <v>1.063029199576351</v>
+        <v>0.9989762893783068</v>
       </c>
       <c r="M22">
-        <v>1.071222399988458</v>
+        <v>0.9976801150542205</v>
       </c>
       <c r="N22">
-        <v>1.062053804923223</v>
+        <v>1.000633206501469</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054448370159551</v>
+        <v>0.9707148515893154</v>
       </c>
       <c r="D23">
-        <v>1.03630287990859</v>
+        <v>1.013710347194315</v>
       </c>
       <c r="E23">
-        <v>1.059957359061084</v>
+        <v>0.9863581831174743</v>
       </c>
       <c r="F23">
-        <v>1.068248926874207</v>
+        <v>0.985399035816896</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040911736687478</v>
+        <v>1.035528591033588</v>
       </c>
       <c r="J23">
-        <v>1.061016250357042</v>
+        <v>1.002103320953603</v>
       </c>
       <c r="K23">
-        <v>1.039942563573167</v>
+        <v>1.02870836812636</v>
       </c>
       <c r="L23">
-        <v>1.063509684872553</v>
+        <v>1.001885614274639</v>
       </c>
       <c r="M23">
-        <v>1.071771641662761</v>
+        <v>1.000945733722739</v>
       </c>
       <c r="N23">
-        <v>1.062523015132814</v>
+        <v>1.003526422612215</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056802739847257</v>
+        <v>0.9848958077086578</v>
       </c>
       <c r="D24">
-        <v>1.037228429902239</v>
+        <v>1.019138695437038</v>
       </c>
       <c r="E24">
-        <v>1.062115235674487</v>
+        <v>0.99880612845661</v>
       </c>
       <c r="F24">
-        <v>1.070676438152453</v>
+        <v>0.9992245679496258</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041425886817072</v>
+        <v>1.039324341585222</v>
       </c>
       <c r="J24">
-        <v>1.062855586659334</v>
+        <v>1.012987939545424</v>
       </c>
       <c r="K24">
-        <v>1.040594210116483</v>
+        <v>1.032837848322468</v>
       </c>
       <c r="L24">
-        <v>1.065396624136091</v>
+        <v>1.01285424230517</v>
       </c>
       <c r="M24">
-        <v>1.073929789747119</v>
+        <v>1.013265314741729</v>
       </c>
       <c r="N24">
-        <v>1.06436496350363</v>
+        <v>1.014426498610919</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.05952576729556</v>
+        <v>1.000219204967323</v>
       </c>
       <c r="D25">
-        <v>1.03830027663266</v>
+        <v>1.025094138910442</v>
       </c>
       <c r="E25">
-        <v>1.064612265220047</v>
+        <v>1.012301262251421</v>
       </c>
       <c r="F25">
-        <v>1.073487308402219</v>
+        <v>1.014217747744624</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042014014711963</v>
+        <v>1.043392637301305</v>
       </c>
       <c r="J25">
-        <v>1.064979406002591</v>
+        <v>1.0247391942416</v>
       </c>
       <c r="K25">
-        <v>1.041344968933802</v>
+        <v>1.037315001238661</v>
       </c>
       <c r="L25">
-        <v>1.067576916167084</v>
+        <v>1.024711571745734</v>
       </c>
       <c r="M25">
-        <v>1.076425924289583</v>
+        <v>1.026599289138235</v>
       </c>
       <c r="N25">
-        <v>1.06649179891396</v>
+        <v>1.026194441436652</v>
       </c>
     </row>
   </sheetData>
